--- a/CASUAL/LA ONT/PALADAN, JENALYN.xlsx
+++ b/CASUAL/LA ONT/PALADAN, JENALYN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>UT(0-3-0)</t>
+  </si>
+  <si>
+    <t>UT(2-1-0)</t>
   </si>
 </sst>
 </file>
@@ -583,6 +586,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -595,20 +607,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1305,7 +1308,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1351,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1415,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1475,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1541,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1604,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,7 +1702,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,7 +1761,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1826,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1866,7 +1869,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1944,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2130,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2196,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2254,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2320,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2376,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2451,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2494,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2560,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,7 +2616,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2714,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +2777,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3253,7 +3256,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4245" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E54:E55"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,14 +3286,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3301,14 +3304,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3321,14 +3324,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3354,18 +3357,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3412,7 +3415,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>50.125</v>
+        <v>48</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4193,11 +4196,15 @@
       <c r="A48" s="40">
         <v>44682</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39">
+        <v>2.125</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
@@ -5405,17 +5412,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5484,14 +5491,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5505,17 +5512,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53" t="str">
+      <c r="F3" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5529,17 +5536,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5565,18 +5572,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7686,14 +7693,16 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3"/>
+      <c r="D3">
+        <v>2</v>
+      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.375</v>
+        <v>2.125</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/PALADAN, JENALYN.xlsx
+++ b/CASUAL/LA ONT/PALADAN, JENALYN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>UT(2-1-0)</t>
+  </si>
+  <si>
+    <t>UT(0-1-45)</t>
+  </si>
+  <si>
+    <t>UT(0-1-8)</t>
+  </si>
+  <si>
+    <t>UT(0-2-0)</t>
   </si>
 </sst>
 </file>
@@ -586,15 +595,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -607,11 +607,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1308,7 +1317,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1360,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,7 +1424,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1484,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1541,7 +1550,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1613,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1702,7 +1711,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1770,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,7 +1835,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,7 +1878,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1953,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,7 +2139,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2205,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2263,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2329,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +2385,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,7 +2460,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2503,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2569,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2616,7 +2625,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2714,7 +2723,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2786,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2852,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K116" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K117" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3251,12 +3260,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K116"/>
+  <dimension ref="A2:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4245" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,14 +3295,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3304,14 +3313,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3324,14 +3333,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3357,18 +3366,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3415,7 +3424,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>48</v>
+        <v>47.388999999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4288,11 +4297,15 @@
       <c r="A52" s="40">
         <v>44805</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C52" s="13">
         <v>1.25</v>
       </c>
-      <c r="D52" s="39"/>
+      <c r="D52" s="39">
+        <v>0.25</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
@@ -4328,11 +4341,15 @@
       <c r="A54" s="40">
         <v>44866</v>
       </c>
-      <c r="B54" s="20"/>
+      <c r="B54" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
-      <c r="D54" s="39"/>
+      <c r="D54" s="39">
+        <v>0.14200000000000002</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
@@ -4369,12 +4386,14 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="20"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="39"/>
+      <c r="D56" s="39">
+        <v>0.219</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13" t="str">
@@ -4387,19 +4406,17 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="40">
-        <v>44957</v>
+      <c r="A57" s="48" t="s">
+        <v>46</v>
       </c>
       <c r="B57" s="20"/>
-      <c r="C57" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C57" s="13"/>
       <c r="D57" s="39"/>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G57" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
@@ -4408,7 +4425,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -4428,7 +4445,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -4448,7 +4465,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4468,7 +4485,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4488,7 +4505,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
@@ -4508,7 +4525,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -4528,7 +4545,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13">
@@ -4548,7 +4565,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4568,7 +4585,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -4588,7 +4605,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -4608,16 +4625,18 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B68" s="20"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
@@ -4625,8 +4644,8 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
-        <v>52</v>
+      <c r="A69" s="40">
+        <v>45291</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4643,8 +4662,8 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40">
-        <v>45322</v>
+      <c r="A70" s="48" t="s">
+        <v>52</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4662,7 +4681,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4680,7 +4699,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4698,7 +4717,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4716,7 +4735,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4734,7 +4753,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4752,7 +4771,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4770,7 +4789,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4787,7 +4806,9 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>45535</v>
+      </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -5395,34 +5416,50 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="41"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="43"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="39"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="43"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="39"/>
       <c r="I116" s="9"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="15"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="20"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="41"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="43"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5491,14 +5528,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5512,17 +5549,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="53" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5536,17 +5573,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5572,18 +5609,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7693,16 +7730,14 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3">
+      <c r="D3"/>
+      <c r="E3">
         <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.125</v>
+        <v>0.25</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
